--- a/public/dummy.xlsx
+++ b/public/dummy.xlsx
@@ -3832,8 +3832,8 @@
   <sheetPr/>
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N$1:N$1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -8197,8 +8197,8 @@
   <sheetPr/>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14545454545454" defaultRowHeight="12.5"/>

--- a/public/dummy.xlsx
+++ b/public/dummy.xlsx
@@ -3833,7 +3833,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -3944,7 +3944,9 @@
       <c r="F2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="51">
+        <v>1111</v>
+      </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="8" t="s">
